--- a/xlsx/国际货币基金组织_intext.xlsx
+++ b/xlsx/国际货币基金组织_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
   <si>
     <t>国际货币基金组织</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_国际货币基金组织</t>
+    <t>政策_政策_美国_国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -59,37 +59,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>金融機構</t>
+    <t>金融机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>匯率</t>
+    <t>汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>技術</t>
+    <t>技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E9%87%91</t>
   </si>
   <si>
-    <t>資金</t>
+    <t>资金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國會員國</t>
+    <t>联合国会员国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -137,31 +137,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E6%B0%91%E6%97%8F%E6%AC%8A%E5%8A%9B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦民族權力機構</t>
+    <t>巴勒斯坦民族权力机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%A8%88</t>
   </si>
   <si>
-    <t>審計</t>
+    <t>审计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
@@ -239,21 +236,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B8%85%E7%AE%97%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>國際清算銀行</t>
+    <t>国际清算银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E9%A1%BF%E6%A3%AE%E6%9E%97%E4%BD%93%E7%B3%BB</t>
   </si>
   <si>
@@ -263,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E5%B1%80</t>
@@ -293,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
   </si>
   <si>
-    <t>投票權</t>
+    <t>投票权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -311,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E6%A2%85%E5%8A%AA%E6%AC%BD</t>
   </si>
   <si>
-    <t>史蒂芬·梅努欽</t>
+    <t>史蒂芬·梅努钦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%A6%AE%E7%89%B9%C2%B7%E8%80%B6%E5%80%AB</t>
   </si>
   <si>
-    <t>珍妮特·耶倫</t>
+    <t>珍妮特·耶伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%94%9F%E5%A4%AA%E9%83%8E</t>
@@ -329,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%94%B0%E6%9D%B1%E5%BD%A5</t>
   </si>
   <si>
-    <t>黑田東彥</t>
+    <t>黑田东彦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E5%B0%8F%E5%B7%9D</t>
@@ -359,9 +353,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Bruno_Le_Maire</t>
   </si>
   <si>
@@ -377,19 +368,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%96%87%E9%81%94</t>
   </si>
   <si>
-    <t>夏文達</t>
+    <t>夏文达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E5%8D%A1%E5%B0%BC</t>
   </si>
   <si>
-    <t>馬克·卡尼</t>
+    <t>马克·卡尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pier_Carlo_Padoan</t>
@@ -425,9 +416,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%A1%BF%C2%B7%E8%B0%A2%E9%B2%81%E9%98%BF%E8%AF%BA%E5%A4%AB</t>
   </si>
   <si>
@@ -479,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ibrahim_A._Al-Assaf</t>
@@ -491,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF%E8%B2%A8%E5%B9%A3%E5%B1%80</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯貨幣局</t>
+    <t>沙乌地阿拉伯货币局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -527,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Klaas_Knot</t>
@@ -563,13 +551,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>比利時國家銀行</t>
+    <t>比利时国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -587,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B6%AD%E7%90%B3%C2%B7%E5%A8%81%E5%BE%B7%E9%BB%98-%E6%96%BD%E5%80%AB%E6%99%AE%E5%A4%AB</t>
   </si>
   <si>
-    <t>艾維琳·威德默-施倫普夫</t>
+    <t>艾维琳·威德默-施伦普夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -611,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -623,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%85%A8%E7%90%83%E5%8C%96%E8%BF%90%E5%8A%A8</t>
@@ -641,19 +629,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>通貨膨脹</t>
+    <t>通货膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%B2%E5%BE%B5%E9%87%91%E8%9E%8D%E4%BA%A4%E6%98%93%E7%A8%85%E4%BB%A5%E5%8D%94%E5%8A%A9%E5%85%AC%E6%B0%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>課徵金融交易稅以協助公民組織</t>
+    <t>课征金融交易税以协助公民组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE</t>
   </si>
   <si>
-    <t>貧窮</t>
+    <t>贫穷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%B8%96%E7%95%8C</t>
@@ -665,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發展中國家</t>
+    <t>发展中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -689,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯亞</t>
+    <t>肯亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Life_and_Debt</t>
@@ -701,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Debtocracy</t>
@@ -713,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%C2%B7%E5%8F%B2%E7%89%B9%E5%8B%9E%E6%96%AF-%E5%8D%A1%E6%81%A9</t>
   </si>
   <si>
-    <t>多米尼克·史特勞斯-卡恩</t>
+    <t>多米尼克·史特劳斯-卡恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -743,19 +731,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%96%8B%E7%99%BC%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>新開發銀行</t>
+    <t>新开发银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B5%90%E7%AE%97%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>國際結算銀行</t>
+    <t>国际结算银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E8%88%87%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>經濟合作與發展組織</t>
+    <t>经济合作与发展组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IMF%E5%80%BA%E5%88%B8</t>
@@ -797,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9_(%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82)</t>
   </si>
   <si>
-    <t>超國家主義 (國際關係)</t>
+    <t>超国家主义 (国际关系)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
@@ -815,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>政府間主義</t>
+    <t>政府间主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
@@ -833,13 +821,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E5%B9%B3%E8%AB%96</t>
   </si>
   <si>
-    <t>民主和平論</t>
+    <t>民主和平论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80%E5%A4%96%E4%BA%A4</t>
   </si>
   <si>
-    <t>價值觀外交</t>
+    <t>价值观外交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%B8%9D%E5%9B%BD</t>
@@ -863,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>全球主義</t>
+    <t>全球主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%84%E7%BB%87</t>
@@ -905,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
+    <t>国际标准化组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
@@ -941,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>突厥議會</t>
+    <t>突厥议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AE%BE%E4%BB%B2%E8%A3%81%E6%B3%95%E9%99%A2</t>
@@ -989,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82%E7%89%B9%E5%88%AB%E6%B3%95%E5%BA%AD</t>
@@ -1061,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -1079,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲委員會</t>
+    <t>欧洲委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
@@ -1133,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E7%B5%B1%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>中美洲統合體</t>
+    <t>中美洲统合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -1151,13 +1139,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南方共同市場</t>
+    <t>南方共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B3%95</t>
@@ -1205,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E5%9F%BA%E6%9C%AC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>歐洲聯盟基本條約</t>
+    <t>欧洲联盟基本条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E6%B3%95%E5%BE%8B</t>
@@ -1217,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>巴黎協議</t>
+    <t>巴黎协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%81%94%E7%9B%9F</t>
@@ -1241,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E4%BA%9E%E5%85%B1%E6%A6%AE%E5%9C%88</t>
   </si>
   <si>
-    <t>大東亞共榮圈</t>
+    <t>大东亚共荣圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BA%92%E5%8A%A9%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1277,19 +1265,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%85%E5%B7%B4%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>歐羅巴合眾國</t>
+    <t>欧罗巴合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>東亞共同體</t>
+    <t>东亚共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>中華聯邦</t>
+    <t>中华联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BA%A2%E5%8D%81%E5%AD%97%E4%B8%8E%E7%BA%A2%E6%96%B0%E6%9C%88%E8%BF%90%E5%8A%A8</t>
@@ -1331,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%85%A8%E7%90%83%E5%8C%96</t>
   </si>
   <si>
-    <t>經濟全球化</t>
+    <t>经济全球化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -1349,49 +1337,40 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E8%AD%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際刑警組織</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>旅遊</t>
+    <t>旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際貿易年表</t>
+    <t>国际贸易年表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96%E6%8C%87%E6%95%B0</t>
@@ -1403,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1421,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1439,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1451,13 +1430,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2458,7 +2437,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
         <v>10</v>
@@ -2484,10 +2463,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2513,10 +2492,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2542,10 +2521,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -2571,10 +2550,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -2600,10 +2579,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -2629,10 +2608,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2658,10 +2637,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2687,10 +2666,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2716,10 +2695,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2745,10 +2724,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2774,10 +2753,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2803,10 +2782,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2832,10 +2811,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2861,10 +2840,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2890,10 +2869,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2919,10 +2898,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2948,10 +2927,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2977,10 +2956,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G40" t="n">
         <v>9</v>
@@ -3006,10 +2985,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3035,10 +3014,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3064,10 +3043,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3093,10 +3072,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3122,10 +3101,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>11</v>
@@ -3151,10 +3130,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3180,10 +3159,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -3209,10 +3188,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" t="s">
         <v>51</v>
-      </c>
-      <c r="F48" t="s">
-        <v>52</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3238,10 +3217,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>7</v>
@@ -3267,10 +3246,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3296,10 +3275,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3325,10 +3304,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3354,10 +3333,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3383,10 +3362,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3412,10 +3391,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3441,10 +3420,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3470,10 +3449,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3499,10 +3478,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3528,10 +3507,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3557,10 +3536,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -3586,10 +3565,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3615,10 +3594,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3644,10 +3623,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3673,10 +3652,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3702,10 +3681,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3731,10 +3710,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3760,10 +3739,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3789,10 +3768,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3818,10 +3797,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3847,10 +3826,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3876,10 +3855,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3905,10 +3884,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3934,10 +3913,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3963,10 +3942,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3992,10 +3971,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4021,10 +4000,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4050,10 +4029,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4079,10 +4058,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4108,10 +4087,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4137,10 +4116,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4166,10 +4145,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4195,10 +4174,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4224,10 +4203,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4253,10 +4232,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4282,10 +4261,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4311,10 +4290,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4340,10 +4319,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4369,10 +4348,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4398,10 +4377,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4427,10 +4406,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4456,10 +4435,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4485,10 +4464,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4514,10 +4493,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4543,10 +4522,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4572,10 +4551,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4601,10 +4580,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4630,10 +4609,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4659,10 +4638,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4688,10 +4667,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4717,10 +4696,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4746,10 +4725,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4775,10 +4754,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4804,10 +4783,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -4833,10 +4812,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4862,10 +4841,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4891,10 +4870,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4920,10 +4899,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4949,10 +4928,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4978,10 +4957,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5007,10 +4986,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5036,10 +5015,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5065,10 +5044,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5094,10 +5073,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5123,10 +5102,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5152,10 +5131,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
@@ -5181,10 +5160,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5210,10 +5189,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5239,10 +5218,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5268,10 +5247,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5297,10 +5276,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5326,10 +5305,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5355,10 +5334,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5384,10 +5363,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5413,10 +5392,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>66</v>
+      </c>
+      <c r="F124" t="s">
         <v>67</v>
-      </c>
-      <c r="F124" t="s">
-        <v>68</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5442,10 +5421,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5471,10 +5450,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5500,10 +5479,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5529,10 +5508,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F128" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -5558,10 +5537,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5587,10 +5566,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5616,10 +5595,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5645,10 +5624,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
@@ -5674,10 +5653,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5703,10 +5682,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5732,10 +5711,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5761,10 +5740,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5790,10 +5769,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5819,10 +5798,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5848,10 +5827,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5877,10 +5856,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>8</v>
@@ -5906,10 +5885,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5935,10 +5914,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5964,10 +5943,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5993,10 +5972,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6022,10 +6001,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -6051,10 +6030,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6080,10 +6059,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -6109,10 +6088,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6138,10 +6117,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6167,10 +6146,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6196,10 +6175,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6225,10 +6204,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>56</v>
+      </c>
+      <c r="F152" t="s">
         <v>57</v>
-      </c>
-      <c r="F152" t="s">
-        <v>58</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6254,10 +6233,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6283,10 +6262,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6312,10 +6291,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6341,10 +6320,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6370,10 +6349,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6399,10 +6378,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6428,10 +6407,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6457,10 +6436,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6486,10 +6465,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6515,10 +6494,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6544,10 +6523,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6573,10 +6552,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6602,10 +6581,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6631,10 +6610,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6660,10 +6639,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6689,10 +6668,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6718,10 +6697,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6747,10 +6726,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6776,10 +6755,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6805,10 +6784,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6834,10 +6813,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6863,10 +6842,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6892,10 +6871,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6921,10 +6900,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6950,10 +6929,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6979,10 +6958,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7008,10 +6987,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7037,10 +7016,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7066,10 +7045,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7095,10 +7074,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7124,10 +7103,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7153,10 +7132,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7182,10 +7161,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7211,10 +7190,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7240,10 +7219,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7269,10 +7248,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7298,10 +7277,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7327,10 +7306,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7356,10 +7335,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7385,10 +7364,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7414,10 +7393,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7443,10 +7422,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7472,10 +7451,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7501,10 +7480,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7530,10 +7509,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F197" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7559,10 +7538,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -7588,10 +7567,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7617,10 +7596,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7646,10 +7625,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7675,10 +7654,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7704,10 +7683,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7733,10 +7712,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7762,10 +7741,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7791,10 +7770,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7820,10 +7799,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7849,10 +7828,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7878,10 +7857,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7907,10 +7886,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7936,10 +7915,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7965,10 +7944,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7994,10 +7973,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8023,10 +8002,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8052,10 +8031,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8081,10 +8060,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8110,10 +8089,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8139,10 +8118,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8168,10 +8147,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8197,10 +8176,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8226,10 +8205,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8255,10 +8234,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8284,10 +8263,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8313,10 +8292,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8342,10 +8321,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8371,10 +8350,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8400,10 +8379,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8429,10 +8408,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8458,10 +8437,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8487,10 +8466,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>282</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -8516,10 +8495,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8545,10 +8524,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8574,10 +8553,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8603,10 +8582,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>290</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8632,10 +8611,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8661,10 +8640,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8690,10 +8669,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8719,10 +8698,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -8748,10 +8727,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8777,10 +8756,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8806,10 +8785,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8835,10 +8814,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8864,10 +8843,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8893,10 +8872,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8922,10 +8901,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8951,10 +8930,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8980,10 +8959,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9009,10 +8988,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9038,10 +9017,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9067,10 +9046,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G250" t="n">
         <v>8</v>
@@ -9096,10 +9075,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F251" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>

--- a/xlsx/国际货币基金组织_intext.xlsx
+++ b/xlsx/国际货币基金组织_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_国际货币基金组织</t>
+    <t>体育运动_体育运动_欧洲议会_国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
